--- a/myCBD/myInfo/le.Map.xlsx
+++ b/myCBD/myInfo/le.Map.xlsx
@@ -22,17 +22,17 @@
     <t>LE</t>
   </si>
   <si>
-    <t>http://www.who.int/healthinfo/statistics/GlobalDALYmethods_2000_2011.pdf</t>
+    <t>http://www.who.int/healthinfo/global_burden_disease/GlobalDALYmethods_2000_2015.pdf</t>
   </si>
   <si>
-    <t>page 58</t>
+    <t>page 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -70,14 +70,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -498,54 +490,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -560,56 +551,52 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="45">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="9" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="13" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="15" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="5" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="6" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="7" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Input" xfId="11" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="14" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="10" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="43"/>
-    <cellStyle name="Note 2" xfId="44"/>
-    <cellStyle name="Output" xfId="12" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Normal 3" xfId="42"/>
+    <cellStyle name="Note 2" xfId="43"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,20 +897,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1"/>
@@ -2137,10 +2124,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>